--- a/input/Sine2_Phase.xlsx
+++ b/input/Sine2_Phase.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05442092941400367</v>
+        <v>0.02548244374480401</v>
       </c>
       <c r="C2" t="n">
-        <v>152.459462965499</v>
+        <v>155.1196868684945</v>
       </c>
       <c r="D2" t="n">
-        <v>2.377597124342507</v>
+        <v>4.425198365858968</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0.2617993877991494</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04567915967498998</v>
+        <v>0.05535919592979506</v>
       </c>
       <c r="C3" t="n">
-        <v>207.9990879666375</v>
+        <v>206.4080325671268</v>
       </c>
       <c r="D3" t="n">
-        <v>2.325868857425694</v>
+        <v>1.731032935600061</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>0.5235987755982988</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02619671948857233</v>
+        <v>0.02522128400978997</v>
       </c>
       <c r="C4" t="n">
-        <v>217.2767016363964</v>
+        <v>210.5360660892276</v>
       </c>
       <c r="D4" t="n">
-        <v>4.23721691188692</v>
+        <v>3.736248590126293</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>0.7853981633974483</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0545412301902771</v>
+        <v>0.04132126513780501</v>
       </c>
       <c r="C5" t="n">
-        <v>155.3583814107113</v>
+        <v>155.3305724094011</v>
       </c>
       <c r="D5" t="n">
-        <v>3.987237981071244</v>
+        <v>3.7838069549992</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1.047197551196598</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05497250627859082</v>
+        <v>0.03466915599985192</v>
       </c>
       <c r="C6" t="n">
-        <v>52.06668993273649</v>
+        <v>53.17785819930636</v>
       </c>
       <c r="D6" t="n">
-        <v>3.640727821950483</v>
+        <v>4.160981177509423</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1.308996938995747</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07187110335469406</v>
+        <v>0.05248196264365405</v>
       </c>
       <c r="C7" t="n">
-        <v>-59.36052222790518</v>
+        <v>-56.80209460711851</v>
       </c>
       <c r="D7" t="n">
-        <v>2.100081744984383</v>
+        <v>3.311827795540527</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>1.570796326794897</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05710846878140267</v>
+        <v>0.06199905553525949</v>
       </c>
       <c r="C8" t="n">
-        <v>-156.9451565573752</v>
+        <v>-149.7835605811072</v>
       </c>
       <c r="D8" t="n">
-        <v>2.872054073782559</v>
+        <v>2.578273756700676</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>1.832595714594046</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06067003258649214</v>
+        <v>0.0307042228034687</v>
       </c>
       <c r="C9" t="n">
-        <v>-210.9793689352058</v>
+        <v>-208.4610238095932</v>
       </c>
       <c r="D9" t="n">
-        <v>3.004223911639395</v>
+        <v>2.60837448200821</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2.094395102393195</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03496848069329443</v>
+        <v>0.04351143443474575</v>
       </c>
       <c r="C10" t="n">
-        <v>-211.5381677215218</v>
+        <v>-208.1500919880107</v>
       </c>
       <c r="D10" t="n">
-        <v>1.528416240424741</v>
+        <v>3.439300039355125</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2.356194490192345</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06919305519566224</v>
+        <v>0.06660062446966006</v>
       </c>
       <c r="C11" t="n">
-        <v>-154.5449873736779</v>
+        <v>-158.9717853950779</v>
       </c>
       <c r="D11" t="n">
-        <v>1.59108591627457</v>
+        <v>4.205167506484173</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2.617993877991494</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0397697800607856</v>
+        <v>0.05262879062982387</v>
       </c>
       <c r="C12" t="n">
-        <v>-60.8944765413074</v>
+        <v>-56.88293046092694</v>
       </c>
       <c r="D12" t="n">
-        <v>2.409360890086272</v>
+        <v>1.886673272285295</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2.879793265790644</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0359013796966955</v>
+        <v>0.04903752791106657</v>
       </c>
       <c r="C13" t="n">
-        <v>54.75618140934361</v>
+        <v>66.57224432659994</v>
       </c>
       <c r="D13" t="n">
-        <v>2.524346467541148</v>
+        <v>2.03434059635256</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>3.141592653589793</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04698933029666002</v>
+        <v>0.05631588178261286</v>
       </c>
       <c r="C14" t="n">
-        <v>152.3811362736266</v>
+        <v>146.5790142715803</v>
       </c>
       <c r="D14" t="n">
-        <v>2.18096534970226</v>
+        <v>2.18753896483895</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>3.403392041388942</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03914947911192231</v>
+        <v>0.05480028572849174</v>
       </c>
       <c r="C15" t="n">
-        <v>201.7219204132015</v>
+        <v>212.9642546300508</v>
       </c>
       <c r="D15" t="n">
-        <v>3.008840450113166</v>
+        <v>2.556062799602127</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>3.665191429188092</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06359980143944609</v>
+        <v>0.0681480504269887</v>
       </c>
       <c r="C16" t="n">
-        <v>208.531663490457</v>
+        <v>215.3856117547747</v>
       </c>
       <c r="D16" t="n">
-        <v>1.589043429588769</v>
+        <v>1.878672372521283</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>3.926990816987241</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07092452351569989</v>
+        <v>0.04809261621359028</v>
       </c>
       <c r="C17" t="n">
-        <v>163.6886320767406</v>
+        <v>150.449981511342</v>
       </c>
       <c r="D17" t="n">
-        <v>3.314212709603491</v>
+        <v>4.345239357847176</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>4.188790204786391</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06589152856947211</v>
+        <v>0.06857243578149287</v>
       </c>
       <c r="C18" t="n">
-        <v>47.45144328367148</v>
+        <v>57.21635650895196</v>
       </c>
       <c r="D18" t="n">
-        <v>2.78647724220881</v>
+        <v>1.524070364759401</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>4.45058959258554</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03657421056166301</v>
+        <v>0.0618898777405417</v>
       </c>
       <c r="C19" t="n">
-        <v>-61.78179414934152</v>
+        <v>-61.13079152206469</v>
       </c>
       <c r="D19" t="n">
-        <v>3.632333778845038</v>
+        <v>1.909271003074378</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>4.71238898038469</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04650226613478479</v>
+        <v>0.0461159512399767</v>
       </c>
       <c r="C20" t="n">
-        <v>-163.1365691046123</v>
+        <v>-151.2753811119431</v>
       </c>
       <c r="D20" t="n">
-        <v>2.010574510538017</v>
+        <v>1.675657304973546</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>4.974188368183839</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03204901977025215</v>
+        <v>0.04750187297072375</v>
       </c>
       <c r="C21" t="n">
-        <v>-215.5570969137689</v>
+        <v>-215.9964746451515</v>
       </c>
       <c r="D21" t="n">
-        <v>2.989877046400724</v>
+        <v>3.579205372380471</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>5.235987755982988</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0626267111187406</v>
+        <v>0.03677497440793234</v>
       </c>
       <c r="C22" t="n">
-        <v>-211.1895509947809</v>
+        <v>-207.8761722410015</v>
       </c>
       <c r="D22" t="n">
-        <v>2.321966938650111</v>
+        <v>4.038038653528557</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>5.497787143782138</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03834799579404175</v>
+        <v>0.04691562057841696</v>
       </c>
       <c r="C23" t="n">
-        <v>-158.2068077207581</v>
+        <v>-148.3765779643703</v>
       </c>
       <c r="D23" t="n">
-        <v>2.547912743066741</v>
+        <v>3.476279691001706</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>5.759586531581287</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02801046184389638</v>
+        <v>0.05920284380409101</v>
       </c>
       <c r="C24" t="n">
-        <v>-69.12699090756455</v>
+        <v>-68.24650357824092</v>
       </c>
       <c r="D24" t="n">
-        <v>1.527872643538665</v>
+        <v>3.434737148204446</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>6.021385919380436</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07106375684366056</v>
+        <v>0.05275404804077709</v>
       </c>
       <c r="C25" t="n">
-        <v>56.34268112498737</v>
+        <v>60.53144143265828</v>
       </c>
       <c r="D25" t="n">
-        <v>2.279451050060405</v>
+        <v>2.32032468974526</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>6.283185307179586</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0687882458655414</v>
+        <v>0.03641645563398804</v>
       </c>
       <c r="C26" t="n">
-        <v>149.9597010562138</v>
+        <v>151.8903945183057</v>
       </c>
       <c r="D26" t="n">
-        <v>3.079955870906607</v>
+        <v>1.984106985647873</v>
       </c>
     </row>
   </sheetData>
